--- a/Scn_lib/Sc-list.xlsx
+++ b/Scn_lib/Sc-list.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marsz\Documents\GitHub\ScenarioBank\Scn_lib\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB5A38C4-B34F-47C9-AA96-FFA8237B63AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D085C8B7-533C-4FFE-BE2C-B9786B0A5664}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="30">
   <si>
     <t>arzi2010</t>
   </si>
@@ -81,9 +81,6 @@
     <t>x</t>
   </si>
   <si>
-    <t>key</t>
-  </si>
-  <si>
     <t>mahoz</t>
   </si>
   <si>
@@ -93,17 +90,38 @@
     <t>largecity</t>
   </si>
   <si>
-    <t>year</t>
-  </si>
-  <si>
-    <t>produced</t>
+    <t>jeru23v09</t>
+  </si>
+  <si>
+    <t>רשימת תרחישים</t>
+  </si>
+  <si>
+    <t>מקוד</t>
+  </si>
+  <si>
+    <t>קוד</t>
+  </si>
+  <si>
+    <t>הוכן ב</t>
+  </si>
+  <si>
+    <t>מפתחות</t>
+  </si>
+  <si>
+    <t>napa</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>תאריך:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -119,13 +137,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -146,21 +176,30 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Bad" xfId="1" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -174,108 +213,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>162265</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>133635</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0403353-2790-B166-5927-55E650B8B3EB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9979599335" y="581025"/>
-          <a:ext cx="2438740" cy="2038635"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="4" name="Straight Arrow Connector 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A967838B-B037-82AB-B5B7-9B995B5946EB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="9980618850" y="1504950"/>
-          <a:ext cx="400050" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -541,295 +478,359 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="D2:K27"/>
+  <dimension ref="B1:J26"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView rightToLeft="1" tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="6" width="12.85546875" customWidth="1"/>
-    <col min="7" max="10" width="13.85546875" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="2"/>
+    <col min="1" max="1" width="4.5703125" customWidth="1"/>
+    <col min="3" max="4" width="12.85546875" customWidth="1"/>
+    <col min="5" max="5" width="4.28515625" customWidth="1"/>
+    <col min="6" max="9" width="15" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="2"/>
+    <col min="13" max="13" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="F2" t="s">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H1" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" s="6">
+        <v>45195</v>
+      </c>
+    </row>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
         <v>22</v>
       </c>
-      <c r="G2" t="s">
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D3" s="3"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" s="4" t="s">
+      <c r="G4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4" t="s">
+      <c r="I4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="G4" s="2"/>
-    </row>
-    <row r="5" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D5" s="1" t="s">
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-    </row>
-    <row r="6" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="E6" s="2" t="s">
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-    </row>
-    <row r="7" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D7" s="2"/>
       <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-    </row>
-    <row r="8" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F8" s="2">
-        <v>2021</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>17</v>
-      </c>
+      <c r="F7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-    </row>
-    <row r="9" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="E9" s="2" t="s">
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="2">
+        <v>2021</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C10" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="2">
+      <c r="D10" s="2">
         <v>2022</v>
       </c>
-      <c r="G9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-    </row>
-    <row r="10" spans="4:10" x14ac:dyDescent="0.25">
       <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-    </row>
-    <row r="11" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F11" s="2"/>
+      <c r="F10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="G11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-    </row>
-    <row r="12" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="E12" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="H11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
       <c r="F12" s="2"/>
-      <c r="G12" s="2" t="s">
-        <v>17</v>
-      </c>
+      <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-    </row>
-    <row r="13" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="E13" s="2" t="s">
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C15" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-    </row>
-    <row r="14" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-    </row>
-    <row r="15" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="G15" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-    </row>
-    <row r="16" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-    </row>
-    <row r="17" spans="4:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="2"/>
       <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-    </row>
-    <row r="18" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D18" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-    </row>
-    <row r="19" spans="4:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-    </row>
-    <row r="20" spans="4:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-    </row>
-    <row r="21" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D21" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>1</v>
-      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-    </row>
-    <row r="22" spans="4:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-    </row>
-    <row r="23" spans="4:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-    </row>
-    <row r="24" spans="4:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B24" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-    </row>
-    <row r="25" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D25" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>5</v>
-      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-    </row>
-    <row r="26" spans="4:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-    </row>
-    <row r="27" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>